--- a/数据整理/stocks/A股/上证主板/603517-绝味食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603517-绝味食品.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4898,7 +4899,6 @@
           <t>长信双利优选混合E</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>86.69</t>
@@ -4914,6 +4914,2526 @@
       </c>
       <c r="H64" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.6044</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>128.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.6956</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>131.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.6819</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>116.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.2578</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1311</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7615</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2156</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0380</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3276</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3066</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2606</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0393</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8428</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8425</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7693</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6246</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6125</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5698</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4899</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4356</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3646</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009852</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华品质消费股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3415</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3359</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3208</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3204</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3134</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2586</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>162712</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发聚利债券(LOF) A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010058</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘荣创一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000057</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银消费主题混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004361</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>29.45</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>58.83</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004362</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>29.45</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007235</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发聚利债券(LOF) C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001947</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002845</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603517-绝味食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603517-绝味食品.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7418,7 +7419,6 @@
           <t>东方红启程三年持有期混合型证券投资基金B</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
           <t>93.63</t>
@@ -7434,6 +7434,1994 @@
       </c>
       <c r="H66" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.6901</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>129.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.4961</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>129.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.1098</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>96.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.5968</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.1316</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>57.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7720</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4757</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2975</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>54.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8153</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6897</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8938</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8807</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8421</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8035</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6391</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5646</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4468</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4026</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3819</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3572</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3205</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>50.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>70.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603517-绝味食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603517-绝味食品.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9406,7 +9407,6 @@
           <t>东方红启程三年持有期混合型证券投资基金B</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>91.77</t>
@@ -9422,6 +9422,106 @@
       </c>
       <c r="H52" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>52.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>55.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>63</v>
+      </c>
+      <c r="D4" t="n">
+        <v>52.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>58.08</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603517-绝味食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603517-绝味食品.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9435,7 +9436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9446,17 +9447,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9466,14 +9487,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>51</v>
-      </c>
-      <c r="D2" t="n">
-        <v>52.14</v>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2507</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -9482,14 +9525,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>65</v>
-      </c>
-      <c r="D3" t="n">
-        <v>55.56</v>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8669</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -9498,14 +9563,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>63</v>
-      </c>
-      <c r="D4" t="n">
-        <v>52.39</v>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6614</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -9514,13 +9601,1975 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2492</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0485</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8315</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6957</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6145</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5200</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4875</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4432</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011516</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3779</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3646</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3161</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3090</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2791</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009852</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华品质消费股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2205</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>166802</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商沪深 300 指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>450008</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国富沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>55.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011517</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000057</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银消费主题混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>55.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>63</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>52</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>58.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603517-绝味食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603517-绝味食品.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11468,7 +11469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11479,17 +11480,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11499,14 +11520,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>52</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.51</v>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6373</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -11515,14 +11558,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>51</v>
-      </c>
-      <c r="D3" t="n">
-        <v>52.14</v>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6373</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -11531,14 +11596,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>65</v>
-      </c>
-      <c r="D4" t="n">
-        <v>55.56</v>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1960</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -11547,14 +11634,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>63</v>
-      </c>
-      <c r="D5" t="n">
-        <v>52.39</v>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9798</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -11563,13 +11672,889 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8237</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6564</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4309</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2851</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.609999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>52.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>55.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>63</v>
+      </c>
+      <c r="D6" t="n">
+        <v>52.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>52</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>58.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603517-绝味食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603517-绝味食品.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12437,7 +12438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12448,17 +12449,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12468,14 +12489,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.609999999999999</v>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5082</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -12484,14 +12527,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>52</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.51</v>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2862</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -12500,14 +12565,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>51</v>
-      </c>
-      <c r="D4" t="n">
-        <v>52.14</v>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6685</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -12516,14 +12603,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>65</v>
-      </c>
-      <c r="D5" t="n">
-        <v>55.56</v>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5187</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -12532,14 +12641,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>63</v>
-      </c>
-      <c r="D6" t="n">
-        <v>52.39</v>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3460</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -12548,13 +12679,2345 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1175</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>43.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9338</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8323</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7845</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5364</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014074</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4697</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3990</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3290</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2862</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2425</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1668</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014075</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>850013</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海通品质升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>56.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015484</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>851399</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>海通品质升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.609999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>65</v>
+      </c>
+      <c r="D6" t="n">
+        <v>55.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>63</v>
+      </c>
+      <c r="D7" t="n">
+        <v>52.39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>52</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>58.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603517-绝味食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603517-绝味食品.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D2" t="n">
-        <v>18.88</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D3" t="n">
-        <v>8.609999999999999</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>16.51</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
-        <v>52.14</v>
+        <v>16.51</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>55.56</v>
+        <v>52.14</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n">
-        <v>52.39</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>63</v>
+      </c>
+      <c r="D8" t="n">
+        <v>52.39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>52</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>58.08</v>
       </c>
     </row>
@@ -600,6 +617,3324 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9407</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5941</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0613</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4941</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4285</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2510</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9555</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9240</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8872</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7091</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013385</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信澳优势价值混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5610</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5510</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5128</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4873</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012193</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4414</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014074</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3179</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2856</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2819</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2618</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014075</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信澳价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014260</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信澳新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>54.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013386</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信澳优势价值混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012194</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013347</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013554</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信澳远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>48.39</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>850013</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>海通品质升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013555</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信澳远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>48.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信澳价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010188</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>57.23</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010189</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>70.58</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>43.77</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014649</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>57.70</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>43.77</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>57.23</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>57.23</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>70.58</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014650</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>851399</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>海通品质升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3045,7 +6380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4013,7 +7348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6045,7 +9380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8032,7 +11367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10551,7 +13886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12994,7 +16329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603517-绝味食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603517-绝味食品.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="D2" t="n">
-        <v>22.7</v>
+        <v>29.97</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D3" t="n">
-        <v>18.88</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>8.609999999999999</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>16.51</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>52.14</v>
+        <v>16.51</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D7" t="n">
-        <v>55.56</v>
+        <v>52.14</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="n">
-        <v>52.39</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2062 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>63</v>
+      </c>
+      <c r="D9" t="n">
+        <v>52.39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>52</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>58.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>117.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.5042</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>160.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3540</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>105.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.9978</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>106.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2696</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3506</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3506</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.1665</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.5725</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5317</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3473</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>41.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9897</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001357</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>46.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7176</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7161</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5714</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2182</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8527</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8527</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7178</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5600</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5419</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4271</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3735</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002801</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泓德泓信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2688</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2340</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>76.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004946</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富盈润混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004774</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富添福吉祥混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000057</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银消费主题混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004947</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富盈润混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005463</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华多元收益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001376</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005464</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华多元收益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2666,4886 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2721</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2773</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9046</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5763</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2812</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1552</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8656</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商优质成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8343</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001043</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8273</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7583</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7125</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6723</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012193</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5207</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4949</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013385</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信澳优势价值混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4543</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4291</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3372</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3369</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2965</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2915</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014074</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014611</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>016524</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014075</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信澳价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>73.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012033</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发睿盛混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012252</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信宏盈18个月持有混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013630</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>73.12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013721</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011478</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>016285</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙头优势混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>58.20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014333</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013386</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信澳优势价值混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012194</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>33.26</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>信澳量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014466</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013722</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013554</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>信澳远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>信澳价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>73.04</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014612</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长信优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>016525</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014467</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>013555</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>信澳远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>35.97</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>015484</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>014049</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>64.56</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012034</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发睿盛混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>016286</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙头优势混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>58.20</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>信澳量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014334</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>工银优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013584</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>招商品质领航混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>35.97</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>014050</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>64.56</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>013583</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>招商品质领航混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>64.56</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>016264</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>016594</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3934,7 +10863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6380,7 +13309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7348,7 +14277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9380,7 +16309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11367,7 +18296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13886,7 +20815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16327,2036 +23256,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519736</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银新成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>117.99</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.5042</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519772</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银新生活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>160.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>7.3540</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519688</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>105.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>5.9978</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008507</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银施罗德内核驱动混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>106.21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4.2696</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519692</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>交银成长混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>34.83</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.62</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>3.3506</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>960016</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>交银成长混合H</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>34.83</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9.62</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>3.3506</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501087</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>交银施罗德瑞丰三年封闭运作混合型</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>49.71</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>3.1665</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519694</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>交银蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>26.09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.42</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9.86</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2.5725</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519773</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>交银施罗德数据产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>42.91</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2.5317</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519732</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>交银定期支付双息平衡混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>80.94</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>69.08</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2.3473</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>169105</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>41.80</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.73</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.9897</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001357</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泓德泓富灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>46.80</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>79.35</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.7176</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010059</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>东方红鼎元3个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>22.76</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.94</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.7161</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160916</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>43.17</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.5714</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>121005</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国投瑞银创新动力混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>27.07</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.2182</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>960017</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>交银稳健配置混合H</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>33.44</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>66.61</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.8527</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>519690</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>交银稳健配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>33.44</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>66.61</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.8527</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>090004</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>大成精选增值混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>15.47</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>86.71</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.7178</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>161219</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>14.07</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>74.23</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.5600</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001218</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>11.53</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>86.88</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.5419</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002563</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>泓德泓汇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>10.52</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>88.02</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.4271</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>121006</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>国投瑞银稳健增长混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>10.04</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>72.13</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.3735</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002801</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>泓德泓信灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.2696</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>398011</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中海分红增利混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.2688</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001144</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>大成互联网思维混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>90.28</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2673</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008734</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>交银施罗德科锐科技创新混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2472</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003601</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫精选混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2395</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005642</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>鹏扬景升灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.2355</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>000805</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中银新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>86.01</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.2340</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>519991</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>长信双利优选混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1589</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006396</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>长信双利优选混合E</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1589</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005664</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>鹏扬景欣混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>13.03</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>28.88</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1498</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>009026</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>中银高质量发展机遇混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>88.13</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1475</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>163810</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中银价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>76.72</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1310</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>002420</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>汇添富盈鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1010</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>004946</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>汇添富盈润混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>26.49</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0623</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>004774</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>汇添富添福吉祥混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>28.87</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0621</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>161224</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>93.55</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0485</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>000326</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>南方中小盘成长股票</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>90.62</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0479</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>398031</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>中海蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>79.01</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0440</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>000327</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>南方潜力新蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0363</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>005643</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>鹏扬景升灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>003602</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫精选混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0290</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>180028</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>银华永祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>77.86</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>009527</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>浙商汇金新兴消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>87.41</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0269</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>000057</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>中银消费主题混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0235</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>005665</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>鹏扬景欣混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>28.88</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>001574</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>中海混改红利主题精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>90.87</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>004947</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>汇添富盈润混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>26.49</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>005463</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>银华多元收益定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>001376</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>泓德泓富灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>79.35</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>005464</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>银华多元收益定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>